--- a/Data-Puma/IPI_puma.xlsx
+++ b/Data-Puma/IPI_puma.xlsx
@@ -24,93 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Exchange rate: EUR/USD</t>
   </si>
   <si>
-    <t xml:space="preserve"> ∟ Operating revenue (Turnover)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Costs of goods sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Gross profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other operating expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Operating P/L [=EBIT]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Financial P/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Financial revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Financial expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ P/L before tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Taxation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ P/L after tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Extr. and other P/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Extr. and other revenue</t>
-  </si>
-  <si>
-    <t>n.a.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Extr. and other expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ P/L for period [=Net income]</t>
-  </si>
-  <si>
-    <t>Memo lines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Export revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Material costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Costs of employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Depreciation &amp; Amortization</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Other operating items</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Interest paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Research &amp; Development expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Cash flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ Added value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ∟ EBITDA</t>
+    <t>Operating revenue (Turnover)</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Costs of goods sold</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>Other operating expenses</t>
+  </si>
+  <si>
+    <t>Operating P/L [=EBIT]</t>
+  </si>
+  <si>
+    <t>Financial revenue</t>
+  </si>
+  <si>
+    <t>Financial expenses</t>
+  </si>
+  <si>
+    <t>P/L before tax</t>
+  </si>
+  <si>
+    <t>Taxation</t>
+  </si>
+  <si>
+    <t>P/L after tax</t>
+  </si>
+  <si>
+    <t>Extr. and other P/L</t>
+  </si>
+  <si>
+    <t>P/L for period [=Net income]</t>
   </si>
 </sst>
 </file>
@@ -182,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -199,9 +154,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,18 +435,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>43830</v>
@@ -508,8 +461,11 @@
       <c r="E1" s="2">
         <v>42735</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F1" s="2">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -525,8 +481,11 @@
       <c r="E2" s="4">
         <v>1.0541</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F2" s="4">
+        <v>1.0887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -542,8 +501,11 @@
       <c r="E3" s="6">
         <v>3840400.92616081</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="6">
+        <v>3731845.6435918799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -559,8 +521,11 @@
       <c r="E4" s="6">
         <v>3822902.8734684</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F4" s="6">
+        <v>3687862.16614246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -576,8 +541,11 @@
       <c r="E5" s="6">
         <v>2013751.79901123</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F5" s="6">
+        <v>1948446.2770104399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -593,8 +561,11 @@
       <c r="E6" s="6">
         <v>1826649.12714958</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F6" s="6">
+        <v>1783399.36658144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -610,8 +581,11 @@
       <c r="E7" s="6">
         <v>1692146.0233211501</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="F7" s="6">
+        <v>1678666.43265486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -627,354 +601,148 @@
       <c r="E8" s="6">
         <v>134503.10382843</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F8" s="6">
+        <v>104732.933926582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>-25388.8366937637</v>
+        <v>8088.4789466857901</v>
       </c>
       <c r="C9" s="6">
-        <v>-27365.5137896538</v>
+        <v>4580.0023078918503</v>
       </c>
       <c r="D9" s="6">
-        <v>-16070.614290237399</v>
+        <v>12352.7856111526</v>
       </c>
       <c r="E9" s="6">
-        <v>-9170.6661701202393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>11068.0453777313</v>
+      </c>
+      <c r="F9" s="6">
+        <v>12193.4392929077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>8088.4789466857901</v>
+        <v>33477.315640449502</v>
       </c>
       <c r="C10" s="6">
-        <v>4580.0023078918503</v>
+        <v>31945.516097545598</v>
       </c>
       <c r="D10" s="6">
-        <v>12352.7856111526</v>
+        <v>28423.399901390101</v>
       </c>
       <c r="E10" s="6">
-        <v>11068.0453777313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>20238.711547851599</v>
+      </c>
+      <c r="F10" s="6">
+        <v>24386.878585815401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>33477.315640449502</v>
+        <v>469131.778907776</v>
       </c>
       <c r="C11" s="6">
-        <v>31945.516097545598</v>
+        <v>358843.18082332599</v>
       </c>
       <c r="D11" s="6">
-        <v>28423.399901390101</v>
+        <v>277278.06148529099</v>
       </c>
       <c r="E11" s="6">
-        <v>20238.711547851599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>125332.43765830999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>92539.494633674607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>469131.778907776</v>
+        <v>122001.224112511</v>
       </c>
       <c r="C12" s="6">
-        <v>358843.18082332599</v>
+        <v>95722.048234939604</v>
       </c>
       <c r="D12" s="6">
-        <v>277278.06148529099</v>
+        <v>75795.733070373506</v>
       </c>
       <c r="E12" s="6">
-        <v>125332.43765830999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>32150.036573410001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>25366.708528995499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>122001.224112511</v>
+        <v>347130.55479526502</v>
       </c>
       <c r="C13" s="6">
-        <v>95722.048234939604</v>
+        <v>263121.132588387</v>
       </c>
       <c r="D13" s="6">
-        <v>75795.733070373506</v>
+        <v>201482.32841491699</v>
       </c>
       <c r="E13" s="6">
-        <v>32150.036573410001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>93182.401084899902</v>
+      </c>
+      <c r="F13" s="6">
+        <v>67172.786104679093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>347130.55479526502</v>
+        <v>-52350.433182716399</v>
       </c>
       <c r="C14" s="6">
-        <v>263121.132588387</v>
+        <v>-48548.024463653601</v>
       </c>
       <c r="D14" s="6">
-        <v>201482.32841491699</v>
+        <v>-38617.4462795258</v>
       </c>
       <c r="E14" s="6">
-        <v>93182.401084899902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>-27406.588554382299</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-26782.018446922299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>-52350.433182716399</v>
+        <v>294780.121612549</v>
       </c>
       <c r="C15" s="6">
-        <v>-48548.024463653601</v>
+        <v>214573.108124733</v>
       </c>
       <c r="D15" s="6">
-        <v>-38617.4462795258</v>
+        <v>162864.882135391</v>
       </c>
       <c r="E15" s="6">
-        <v>-27406.588554382299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>294780.121612549</v>
-      </c>
-      <c r="C18" s="6">
-        <v>214573.108124733</v>
-      </c>
-      <c r="D18" s="6">
-        <v>162864.882135391</v>
-      </c>
-      <c r="E18" s="6">
         <v>65775.812530517607</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <v>712010.827279091</v>
-      </c>
-      <c r="C22" s="6">
-        <v>633986.81946992897</v>
-      </c>
-      <c r="D22" s="6">
-        <v>658535.396027565</v>
-      </c>
-      <c r="E22" s="6">
-        <v>519671.08297347999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <v>276805.72395324701</v>
-      </c>
-      <c r="C23" s="6">
-        <v>94119.0474271774</v>
-      </c>
-      <c r="D23" s="6">
-        <v>84430.690002441406</v>
-      </c>
-      <c r="E23" s="6">
-        <v>63140.563631057703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <v>54484.892904758497</v>
-      </c>
-      <c r="C25" s="6">
-        <v>22442.01130867</v>
-      </c>
-      <c r="D25" s="6">
-        <v>22067.112159729</v>
-      </c>
-      <c r="E25" s="6">
-        <v>14757.393836975099</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <v>69313.770973682404</v>
-      </c>
-      <c r="C26" s="6">
-        <v>61830.031156539902</v>
-      </c>
-      <c r="D26" s="6">
-        <v>64042.59724617</v>
-      </c>
-      <c r="E26" s="6">
-        <v>54813.177108764598</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6">
-        <v>571585.84556579601</v>
-      </c>
-      <c r="C27" s="6">
-        <v>308692.15555190999</v>
-      </c>
-      <c r="D27" s="6">
-        <v>247295.57213783299</v>
-      </c>
-      <c r="E27" s="6">
-        <v>128916.376161575</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1460082.7898621601</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1060843.0345654499</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1003693.8133955</v>
-      </c>
-      <c r="E28" s="6">
-        <v>695494.88954544102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <v>771326.33955478703</v>
-      </c>
-      <c r="C29" s="6">
-        <v>480327.74204015703</v>
-      </c>
-      <c r="D29" s="6">
-        <v>377779.36577796901</v>
-      </c>
-      <c r="E29" s="6">
-        <v>197643.667459488</v>
+      <c r="F15" s="6">
+        <v>40390.767657756798</v>
       </c>
     </row>
   </sheetData>

--- a/Data-Puma/IPI_puma.xlsx
+++ b/Data-Puma/IPI_puma.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Exchange rate: EUR/USD</t>
-  </si>
-  <si>
-    <t>Operating revenue (Turnover)</t>
   </si>
   <si>
     <t>Sales</t>
@@ -435,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,104 +482,104 @@
         <v>1.0887</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>6214086.2907767296</v>
+        <v>6209368.0113911601</v>
       </c>
       <c r="C3" s="6">
-        <v>5365243.7035798999</v>
+        <v>5322306.1819434203</v>
       </c>
       <c r="D3" s="6">
-        <v>4979491.8308258103</v>
+        <v>4960183.10768604</v>
       </c>
       <c r="E3" s="6">
-        <v>3840400.92616081</v>
+        <v>3822902.8734684</v>
       </c>
       <c r="F3" s="6">
-        <v>3731845.6435918799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3687862.16614246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>6209368.0113911601</v>
+        <v>2886463.5841131201</v>
       </c>
       <c r="C4" s="6">
-        <v>5322306.1819434203</v>
+        <v>2652737.3367309598</v>
       </c>
       <c r="D4" s="6">
-        <v>4960183.10768604</v>
+        <v>2531841.33045673</v>
       </c>
       <c r="E4" s="6">
-        <v>3822902.8734684</v>
+        <v>2013751.79901123</v>
       </c>
       <c r="F4" s="6">
-        <v>3687862.16614246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1948446.2770104399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>2886463.5841131201</v>
+        <v>3327622.7066636099</v>
       </c>
       <c r="C5" s="6">
-        <v>2652737.3367309598</v>
+        <v>2712506.3668489498</v>
       </c>
       <c r="D5" s="6">
-        <v>2531841.33045673</v>
+        <v>2447650.5003690701</v>
       </c>
       <c r="E5" s="6">
-        <v>2013751.79901123</v>
+        <v>1826649.12714958</v>
       </c>
       <c r="F5" s="6">
-        <v>1948446.2770104399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1783399.36658144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>3327622.7066636099</v>
+        <v>2833102.0910620699</v>
       </c>
       <c r="C6" s="6">
-        <v>2712506.3668489498</v>
+        <v>2326297.6722359699</v>
       </c>
       <c r="D6" s="6">
-        <v>2447650.5003690701</v>
+        <v>2154301.8245935398</v>
       </c>
       <c r="E6" s="6">
-        <v>1826649.12714958</v>
+        <v>1692146.0233211501</v>
       </c>
       <c r="F6" s="6">
-        <v>1783399.36658144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1678666.43265486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>2833102.0910620699</v>
+        <v>494520.61560154002</v>
       </c>
       <c r="C7" s="6">
-        <v>2326297.6722359699</v>
+        <v>386208.69461298001</v>
       </c>
       <c r="D7" s="6">
-        <v>2154301.8245935398</v>
+        <v>293348.67577552801</v>
       </c>
       <c r="E7" s="6">
-        <v>1692146.0233211501</v>
+        <v>134503.10382843</v>
       </c>
       <c r="F7" s="6">
-        <v>1678666.43265486</v>
+        <v>104732.933926582</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -590,19 +587,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>494520.61560154002</v>
+        <v>8088.4789466857901</v>
       </c>
       <c r="C8" s="6">
-        <v>386208.69461298001</v>
+        <v>4580.0023078918503</v>
       </c>
       <c r="D8" s="6">
-        <v>293348.67577552801</v>
+        <v>12352.7856111526</v>
       </c>
       <c r="E8" s="6">
-        <v>134503.10382843</v>
+        <v>11068.0453777313</v>
       </c>
       <c r="F8" s="6">
-        <v>104732.933926582</v>
+        <v>12193.4392929077</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -610,39 +607,39 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>8088.4789466857901</v>
+        <v>33477.315640449502</v>
       </c>
       <c r="C9" s="6">
-        <v>4580.0023078918503</v>
+        <v>31945.516097545598</v>
       </c>
       <c r="D9" s="6">
-        <v>12352.7856111526</v>
+        <v>28423.399901390101</v>
       </c>
       <c r="E9" s="6">
-        <v>11068.0453777313</v>
+        <v>20238.711547851599</v>
       </c>
       <c r="F9" s="6">
-        <v>12193.4392929077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+        <v>24386.878585815401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>33477.315640449502</v>
+        <v>469131.778907776</v>
       </c>
       <c r="C10" s="6">
-        <v>31945.516097545598</v>
+        <v>358843.18082332599</v>
       </c>
       <c r="D10" s="6">
-        <v>28423.399901390101</v>
+        <v>277278.06148529099</v>
       </c>
       <c r="E10" s="6">
-        <v>20238.711547851599</v>
+        <v>125332.43765830999</v>
       </c>
       <c r="F10" s="6">
-        <v>24386.878585815401</v>
+        <v>92539.494633674607</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -650,19 +647,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>469131.778907776</v>
+        <v>122001.224112511</v>
       </c>
       <c r="C11" s="6">
-        <v>358843.18082332599</v>
+        <v>95722.048234939604</v>
       </c>
       <c r="D11" s="6">
-        <v>277278.06148529099</v>
+        <v>75795.733070373506</v>
       </c>
       <c r="E11" s="6">
-        <v>125332.43765830999</v>
+        <v>32150.036573410001</v>
       </c>
       <c r="F11" s="6">
-        <v>92539.494633674607</v>
+        <v>25366.708528995499</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,39 +667,39 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>122001.224112511</v>
+        <v>347130.55479526502</v>
       </c>
       <c r="C12" s="6">
-        <v>95722.048234939604</v>
+        <v>263121.132588387</v>
       </c>
       <c r="D12" s="6">
-        <v>75795.733070373506</v>
+        <v>201482.32841491699</v>
       </c>
       <c r="E12" s="6">
-        <v>32150.036573410001</v>
+        <v>93182.401084899902</v>
       </c>
       <c r="F12" s="6">
-        <v>25366.708528995499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67172.786104679093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>347130.55479526502</v>
+        <v>-52350.433182716399</v>
       </c>
       <c r="C13" s="6">
-        <v>263121.132588387</v>
+        <v>-48548.024463653601</v>
       </c>
       <c r="D13" s="6">
-        <v>201482.32841491699</v>
+        <v>-38617.4462795258</v>
       </c>
       <c r="E13" s="6">
-        <v>93182.401084899902</v>
+        <v>-27406.588554382299</v>
       </c>
       <c r="F13" s="6">
-        <v>67172.786104679093</v>
+        <v>-26782.018446922299</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -710,38 +707,18 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>-52350.433182716399</v>
+        <v>294780.121612549</v>
       </c>
       <c r="C14" s="6">
-        <v>-48548.024463653601</v>
+        <v>214573.108124733</v>
       </c>
       <c r="D14" s="6">
-        <v>-38617.4462795258</v>
+        <v>162864.882135391</v>
       </c>
       <c r="E14" s="6">
-        <v>-27406.588554382299</v>
+        <v>65775.812530517607</v>
       </c>
       <c r="F14" s="6">
-        <v>-26782.018446922299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>294780.121612549</v>
-      </c>
-      <c r="C15" s="6">
-        <v>214573.108124733</v>
-      </c>
-      <c r="D15" s="6">
-        <v>162864.882135391</v>
-      </c>
-      <c r="E15" s="6">
-        <v>65775.812530517607</v>
-      </c>
-      <c r="F15" s="6">
         <v>40390.767657756798</v>
       </c>
     </row>
